--- a/Solid_State_Electronics_Labs/7_sem/Lab11a/data.xlsx
+++ b/Solid_State_Electronics_Labs/7_sem/Lab11a/data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Solid_State_Electronics_Labs/7_sem/Lab11a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekha\OneDrive\GitHub\Labs\Solid_State_Electronics_Labs\7_sem\Lab11a\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{4E895CAF-63E7-4E70-8FBD-CEBC178EDF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB5B8039-E5A5-4E26-AB8C-4896F8B60E09}"/>
+  <xr:revisionPtr revIDLastSave="293" documentId="8_{4E895CAF-63E7-4E70-8FBD-CEBC178EDF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35161689-9A71-42A5-A4B7-CCCEE7C8BE79}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{EC7EF744-198A-4D7B-BDF2-4F04BF81E19E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>V, В</t>
   </si>
@@ -78,22 +78,10 @@
     <t>Фильтр 1</t>
   </si>
   <si>
-    <t>0.47 В</t>
-  </si>
-  <si>
-    <t>120 мА</t>
-  </si>
-  <si>
     <t>Холостой ход</t>
   </si>
   <si>
     <t>Фильтр 2</t>
-  </si>
-  <si>
-    <t>74 мА</t>
-  </si>
-  <si>
-    <t>0.45 В</t>
   </si>
   <si>
     <t>Фильтр 3</t>
@@ -102,16 +90,7 @@
     <t>Фильтр 4</t>
   </si>
   <si>
-    <t>16 мА</t>
-  </si>
-  <si>
-    <t>39 мА</t>
-  </si>
-  <si>
-    <t>0.42 В</t>
-  </si>
-  <si>
-    <t>0.36 В</t>
+    <t>I, мА</t>
   </si>
 </sst>
 </file>
@@ -574,6 +553,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>В</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -636,6 +679,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>мкА</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -829,6 +931,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Лист1!$A$4:$A$13</c:f>
@@ -946,6 +1062,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>V, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>В</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1008,6 +1183,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>мкА</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3607,14 +3841,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E910E-7679-4A63-8981-253C4045C48D}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.265625" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.796875" customWidth="1"/>
     <col min="8" max="8" width="11.59765625" customWidth="1"/>
     <col min="10" max="10" width="20.59765625" customWidth="1"/>
@@ -3630,6 +3867,9 @@
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="17.649999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
@@ -3639,7 +3879,10 @@
         <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -3685,11 +3928,11 @@
       <c r="O3" t="s">
         <v>14</v>
       </c>
-      <c r="P3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>16</v>
+      <c r="P3">
+        <v>0.47</v>
+      </c>
+      <c r="Q3">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -3737,13 +3980,13 @@
         <v>15</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="P4">
+        <v>0.45</v>
+      </c>
+      <c r="Q4">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
@@ -3751,7 +3994,7 @@
         <v>0.02</v>
       </c>
       <c r="B5" s="6">
-        <f t="shared" ref="B5:B13" si="0">C5/50*5</f>
+        <f t="shared" ref="B5:B10" si="0">C5/50*5</f>
         <v>1.6</v>
       </c>
       <c r="C5">
@@ -3761,7 +4004,7 @@
         <v>0.04</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E26" si="1">F5/50*G5</f>
+        <f t="shared" ref="E5:E13" si="1">F5/50*G5</f>
         <v>3.9000000000000004</v>
       </c>
       <c r="F5">
@@ -3771,11 +4014,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" ref="H5:H26" si="2">J5*K5/75*1000</f>
+        <f t="shared" ref="H5:H22" si="2">J5*K5/75*1000</f>
         <v>160</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" ref="I5:I26" si="3">L5/155*M5</f>
+        <f t="shared" ref="I5:I22" si="3">L5/155*M5</f>
         <v>14.032258064516128</v>
       </c>
       <c r="J5">
@@ -3791,13 +4034,13 @@
         <v>15</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="P5">
+        <v>0.42</v>
+      </c>
+      <c r="Q5">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
@@ -3845,13 +4088,13 @@
         <v>15</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="P6">
+        <v>0.36</v>
+      </c>
+      <c r="Q6">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
@@ -4546,6 +4789,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>